--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Rpsa</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.6621916071856</v>
+        <v>23.02021</v>
       </c>
       <c r="H2">
-        <v>20.6621916071856</v>
+        <v>69.06063</v>
       </c>
       <c r="I2">
-        <v>0.299474092991662</v>
+        <v>0.3124724225015736</v>
       </c>
       <c r="J2">
-        <v>0.299474092991662</v>
+        <v>0.3124724225015736</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.7148512276327</v>
+        <v>53.73758233333334</v>
       </c>
       <c r="N2">
-        <v>26.7148512276327</v>
+        <v>161.212747</v>
       </c>
       <c r="O2">
-        <v>0.03062324921763431</v>
+        <v>0.05888757418975077</v>
       </c>
       <c r="P2">
-        <v>0.03062324921763431</v>
+        <v>0.05888757418975077</v>
       </c>
       <c r="Q2">
-        <v>551.9873748228043</v>
+        <v>1237.050430205624</v>
       </c>
       <c r="R2">
-        <v>551.9873748228043</v>
+        <v>11133.45387185061</v>
       </c>
       <c r="S2">
-        <v>0.009170869783908657</v>
+        <v>0.01840074296231256</v>
       </c>
       <c r="T2">
-        <v>0.009170869783908657</v>
+        <v>0.01840074296231256</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.6621916071856</v>
+        <v>23.02021</v>
       </c>
       <c r="H3">
-        <v>20.6621916071856</v>
+        <v>69.06063</v>
       </c>
       <c r="I3">
-        <v>0.299474092991662</v>
+        <v>0.3124724225015736</v>
       </c>
       <c r="J3">
-        <v>0.299474092991662</v>
+        <v>0.3124724225015736</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>388.908299118394</v>
+        <v>389.2008666666666</v>
       </c>
       <c r="N3">
-        <v>388.908299118394</v>
+        <v>1167.6026</v>
       </c>
       <c r="O3">
-        <v>0.4458058053637982</v>
+        <v>0.4265002985877158</v>
       </c>
       <c r="P3">
-        <v>0.4458058053637982</v>
+        <v>0.4265002985877158</v>
       </c>
       <c r="Q3">
-        <v>8035.697794008907</v>
+        <v>8959.485682848666</v>
       </c>
       <c r="R3">
-        <v>8035.697794008907</v>
+        <v>80635.371145638</v>
       </c>
       <c r="S3">
-        <v>0.1335072892117409</v>
+        <v>0.133269581497348</v>
       </c>
       <c r="T3">
-        <v>0.1335072892117409</v>
+        <v>0.133269581497348</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.6621916071856</v>
+        <v>23.02021</v>
       </c>
       <c r="H4">
-        <v>20.6621916071856</v>
+        <v>69.06063</v>
       </c>
       <c r="I4">
-        <v>0.299474092991662</v>
+        <v>0.3124724225015736</v>
       </c>
       <c r="J4">
-        <v>0.299474092991662</v>
+        <v>0.3124724225015736</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>126.78319617521</v>
+        <v>132.7388736666666</v>
       </c>
       <c r="N4">
-        <v>126.78319617521</v>
+        <v>398.216621</v>
       </c>
       <c r="O4">
-        <v>0.1453316501746329</v>
+        <v>0.1454600287453036</v>
       </c>
       <c r="P4">
-        <v>0.1453316501746329</v>
+        <v>0.1454600287453036</v>
       </c>
       <c r="Q4">
-        <v>2619.61869194359</v>
+        <v>3055.676746970137</v>
       </c>
       <c r="R4">
-        <v>2619.61869194359</v>
+        <v>27501.09072273123</v>
       </c>
       <c r="S4">
-        <v>0.0435230641190297</v>
+        <v>0.04545224755919356</v>
       </c>
       <c r="T4">
-        <v>0.0435230641190297</v>
+        <v>0.04545224755919357</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.6621916071856</v>
+        <v>23.02021</v>
       </c>
       <c r="H5">
-        <v>20.6621916071856</v>
+        <v>69.06063</v>
       </c>
       <c r="I5">
-        <v>0.299474092991662</v>
+        <v>0.3124724225015736</v>
       </c>
       <c r="J5">
-        <v>0.299474092991662</v>
+        <v>0.3124724225015736</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>130.898915652117</v>
+        <v>132.282102</v>
       </c>
       <c r="N5">
-        <v>130.898915652117</v>
+        <v>396.846306</v>
       </c>
       <c r="O5">
-        <v>0.150049501761275</v>
+        <v>0.1449594819354051</v>
       </c>
       <c r="P5">
-        <v>0.150049501761275</v>
+        <v>0.1449594819354051</v>
       </c>
       <c r="Q5">
-        <v>2704.658476376868</v>
+        <v>3045.16176728142</v>
       </c>
       <c r="R5">
-        <v>2704.658476376868</v>
+        <v>27406.45590553278</v>
       </c>
       <c r="S5">
-        <v>0.04493593844380862</v>
+        <v>0.04529584048492914</v>
       </c>
       <c r="T5">
-        <v>0.04493593844380862</v>
+        <v>0.04529584048492914</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.6621916071856</v>
+        <v>23.02021</v>
       </c>
       <c r="H6">
-        <v>20.6621916071856</v>
+        <v>69.06063</v>
       </c>
       <c r="I6">
-        <v>0.299474092991662</v>
+        <v>0.3124724225015736</v>
       </c>
       <c r="J6">
-        <v>0.299474092991662</v>
+        <v>0.3124724225015736</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.2797555117349</v>
+        <v>58.687468</v>
       </c>
       <c r="N6">
-        <v>58.2797555117349</v>
+        <v>176.062404</v>
       </c>
       <c r="O6">
-        <v>0.06680611702350119</v>
+        <v>0.06431183681508679</v>
       </c>
       <c r="P6">
-        <v>0.06680611702350119</v>
+        <v>0.06431183681508679</v>
       </c>
       <c r="Q6">
-        <v>1204.187475203398</v>
+        <v>1350.99783772828</v>
       </c>
       <c r="R6">
-        <v>1204.187475203398</v>
+        <v>12158.98053955452</v>
       </c>
       <c r="S6">
-        <v>0.02000670130190785</v>
+        <v>0.02009567544513606</v>
       </c>
       <c r="T6">
-        <v>0.02000670130190785</v>
+        <v>0.02009567544513606</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.6621916071856</v>
+        <v>23.02021</v>
       </c>
       <c r="H7">
-        <v>20.6621916071856</v>
+        <v>69.06063</v>
       </c>
       <c r="I7">
-        <v>0.299474092991662</v>
+        <v>0.3124724225015736</v>
       </c>
       <c r="J7">
-        <v>0.299474092991662</v>
+        <v>0.3124724225015736</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.786527142657</v>
+        <v>145.898463</v>
       </c>
       <c r="N7">
-        <v>140.786527142657</v>
+        <v>437.695389</v>
       </c>
       <c r="O7">
-        <v>0.1613836764591583</v>
+        <v>0.1598807797267379</v>
       </c>
       <c r="P7">
-        <v>0.1613836764591583</v>
+        <v>0.1598807797267379</v>
       </c>
       <c r="Q7">
-        <v>2908.958199531815</v>
+        <v>3358.61325693723</v>
       </c>
       <c r="R7">
-        <v>2908.958199531815</v>
+        <v>30227.51931243507</v>
       </c>
       <c r="S7">
-        <v>0.04833023013126626</v>
+        <v>0.04995833455265426</v>
       </c>
       <c r="T7">
-        <v>0.04833023013126626</v>
+        <v>0.04995833455265426</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>31.1131525417277</v>
+        <v>31.48707066666667</v>
       </c>
       <c r="H8">
-        <v>31.1131525417277</v>
+        <v>94.461212</v>
       </c>
       <c r="I8">
-        <v>0.4509484431605401</v>
+        <v>0.4274001518097173</v>
       </c>
       <c r="J8">
-        <v>0.4509484431605401</v>
+        <v>0.4274001518097173</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.7148512276327</v>
+        <v>53.73758233333334</v>
       </c>
       <c r="N8">
-        <v>26.7148512276327</v>
+        <v>161.212747</v>
       </c>
       <c r="O8">
-        <v>0.03062324921763431</v>
+        <v>0.05888757418975077</v>
       </c>
       <c r="P8">
-        <v>0.03062324921763431</v>
+        <v>0.05888757418975077</v>
       </c>
       <c r="Q8">
-        <v>831.1832413748978</v>
+        <v>1692.039052385485</v>
       </c>
       <c r="R8">
-        <v>831.1832413748978</v>
+        <v>15228.35147146936</v>
       </c>
       <c r="S8">
-        <v>0.01380950655920942</v>
+        <v>0.02516855814840547</v>
       </c>
       <c r="T8">
-        <v>0.01380950655920942</v>
+        <v>0.02516855814840547</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>31.1131525417277</v>
+        <v>31.48707066666667</v>
       </c>
       <c r="H9">
-        <v>31.1131525417277</v>
+        <v>94.461212</v>
       </c>
       <c r="I9">
-        <v>0.4509484431605401</v>
+        <v>0.4274001518097173</v>
       </c>
       <c r="J9">
-        <v>0.4509484431605401</v>
+        <v>0.4274001518097173</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>388.908299118394</v>
+        <v>389.2008666666666</v>
       </c>
       <c r="N9">
-        <v>388.908299118394</v>
+        <v>1167.6026</v>
       </c>
       <c r="O9">
-        <v>0.4458058053637982</v>
+        <v>0.4265002985877158</v>
       </c>
       <c r="P9">
-        <v>0.4458058053637982</v>
+        <v>0.4265002985877158</v>
       </c>
       <c r="Q9">
-        <v>12100.16323521446</v>
+        <v>12254.79519226124</v>
       </c>
       <c r="R9">
-        <v>12100.16323521446</v>
+        <v>110293.1567303512</v>
       </c>
       <c r="S9">
-        <v>0.2010354338807356</v>
+        <v>0.1822862923632795</v>
       </c>
       <c r="T9">
-        <v>0.2010354338807356</v>
+        <v>0.1822862923632795</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>31.1131525417277</v>
+        <v>31.48707066666667</v>
       </c>
       <c r="H10">
-        <v>31.1131525417277</v>
+        <v>94.461212</v>
       </c>
       <c r="I10">
-        <v>0.4509484431605401</v>
+        <v>0.4274001518097173</v>
       </c>
       <c r="J10">
-        <v>0.4509484431605401</v>
+        <v>0.4274001518097173</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>126.78319617521</v>
+        <v>132.7388736666666</v>
       </c>
       <c r="N10">
-        <v>126.78319617521</v>
+        <v>398.216621</v>
       </c>
       <c r="O10">
-        <v>0.1453316501746329</v>
+        <v>0.1454600287453036</v>
       </c>
       <c r="P10">
-        <v>0.1453316501746329</v>
+        <v>0.1454600287453036</v>
       </c>
       <c r="Q10">
-        <v>3944.624922327097</v>
+        <v>4179.558295356072</v>
       </c>
       <c r="R10">
-        <v>3944.624922327097</v>
+        <v>37616.02465820465</v>
       </c>
       <c r="S10">
-        <v>0.06553708138820293</v>
+        <v>0.0621696383679886</v>
       </c>
       <c r="T10">
-        <v>0.06553708138820293</v>
+        <v>0.06216963836798862</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>31.1131525417277</v>
+        <v>31.48707066666667</v>
       </c>
       <c r="H11">
-        <v>31.1131525417277</v>
+        <v>94.461212</v>
       </c>
       <c r="I11">
-        <v>0.4509484431605401</v>
+        <v>0.4274001518097173</v>
       </c>
       <c r="J11">
-        <v>0.4509484431605401</v>
+        <v>0.4274001518097173</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>130.898915652117</v>
+        <v>132.282102</v>
       </c>
       <c r="N11">
-        <v>130.898915652117</v>
+        <v>396.846306</v>
       </c>
       <c r="O11">
-        <v>0.150049501761275</v>
+        <v>0.1449594819354051</v>
       </c>
       <c r="P11">
-        <v>0.150049501761275</v>
+        <v>0.1449594819354051</v>
       </c>
       <c r="Q11">
-        <v>4072.677930231064</v>
+        <v>4165.175893609208</v>
       </c>
       <c r="R11">
-        <v>4072.677930231064</v>
+        <v>37486.58304248287</v>
       </c>
       <c r="S11">
-        <v>0.06766458921626167</v>
+        <v>0.06195570458545012</v>
       </c>
       <c r="T11">
-        <v>0.06766458921626167</v>
+        <v>0.06195570458545012</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>31.1131525417277</v>
+        <v>31.48707066666667</v>
       </c>
       <c r="H12">
-        <v>31.1131525417277</v>
+        <v>94.461212</v>
       </c>
       <c r="I12">
-        <v>0.4509484431605401</v>
+        <v>0.4274001518097173</v>
       </c>
       <c r="J12">
-        <v>0.4509484431605401</v>
+        <v>0.4274001518097173</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.2797555117349</v>
+        <v>58.687468</v>
       </c>
       <c r="N12">
-        <v>58.2797555117349</v>
+        <v>176.062404</v>
       </c>
       <c r="O12">
-        <v>0.06680611702350119</v>
+        <v>0.06431183681508679</v>
       </c>
       <c r="P12">
-        <v>0.06680611702350119</v>
+        <v>0.06431183681508679</v>
       </c>
       <c r="Q12">
-        <v>1813.266923331204</v>
+        <v>1847.896452163739</v>
       </c>
       <c r="R12">
-        <v>1813.266923331204</v>
+        <v>16631.06806947365</v>
       </c>
       <c r="S12">
-        <v>0.03012611446534872</v>
+        <v>0.02748688881792986</v>
       </c>
       <c r="T12">
-        <v>0.03012611446534872</v>
+        <v>0.02748688881792986</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>31.1131525417277</v>
+        <v>31.48707066666667</v>
       </c>
       <c r="H13">
-        <v>31.1131525417277</v>
+        <v>94.461212</v>
       </c>
       <c r="I13">
-        <v>0.4509484431605401</v>
+        <v>0.4274001518097173</v>
       </c>
       <c r="J13">
-        <v>0.4509484431605401</v>
+        <v>0.4274001518097173</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>140.786527142657</v>
+        <v>145.898463</v>
       </c>
       <c r="N13">
-        <v>140.786527142657</v>
+        <v>437.695389</v>
       </c>
       <c r="O13">
-        <v>0.1613836764591583</v>
+        <v>0.1598807797267379</v>
       </c>
       <c r="P13">
-        <v>0.1613836764591583</v>
+        <v>0.1598807797267379</v>
       </c>
       <c r="Q13">
-        <v>4380.312694809575</v>
+        <v>4593.915214639052</v>
       </c>
       <c r="R13">
-        <v>4380.312694809575</v>
+        <v>41345.23693175147</v>
       </c>
       <c r="S13">
-        <v>0.07277571765078172</v>
+        <v>0.06833306952666374</v>
       </c>
       <c r="T13">
-        <v>0.07277571765078172</v>
+        <v>0.06833306952666374</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.208108647789261</v>
+        <v>0.156823</v>
       </c>
       <c r="H14">
-        <v>0.208108647789261</v>
+        <v>0.470469</v>
       </c>
       <c r="I14">
-        <v>0.003016289352322932</v>
+        <v>0.002128688778858415</v>
       </c>
       <c r="J14">
-        <v>0.003016289352322932</v>
+        <v>0.002128688778858415</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.7148512276327</v>
+        <v>53.73758233333334</v>
       </c>
       <c r="N14">
-        <v>26.7148512276327</v>
+        <v>161.212747</v>
       </c>
       <c r="O14">
-        <v>0.03062324921763431</v>
+        <v>0.05888757418975077</v>
       </c>
       <c r="P14">
-        <v>0.03062324921763431</v>
+        <v>0.05888757418975077</v>
       </c>
       <c r="Q14">
-        <v>5.55959156487392</v>
+        <v>8.427288874260334</v>
       </c>
       <c r="R14">
-        <v>5.55959156487392</v>
+        <v>75.845599868343</v>
       </c>
       <c r="S14">
-        <v>9.236858054868192E-05</v>
+        <v>0.0001253533183919149</v>
       </c>
       <c r="T14">
-        <v>9.236858054868192E-05</v>
+        <v>0.0001253533183919149</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.208108647789261</v>
+        <v>0.156823</v>
       </c>
       <c r="H15">
-        <v>0.208108647789261</v>
+        <v>0.470469</v>
       </c>
       <c r="I15">
-        <v>0.003016289352322932</v>
+        <v>0.002128688778858415</v>
       </c>
       <c r="J15">
-        <v>0.003016289352322932</v>
+        <v>0.002128688778858415</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>388.908299118394</v>
+        <v>389.2008666666666</v>
       </c>
       <c r="N15">
-        <v>388.908299118394</v>
+        <v>1167.6026</v>
       </c>
       <c r="O15">
-        <v>0.4458058053637982</v>
+        <v>0.4265002985877158</v>
       </c>
       <c r="P15">
-        <v>0.4458058053637982</v>
+        <v>0.4265002985877158</v>
       </c>
       <c r="Q15">
-        <v>80.93518024355042</v>
+        <v>61.03564751326667</v>
       </c>
       <c r="R15">
-        <v>80.93518024355042</v>
+        <v>549.3208276194</v>
       </c>
       <c r="S15">
-        <v>0.001344679303922574</v>
+        <v>0.0009078863997834343</v>
       </c>
       <c r="T15">
-        <v>0.001344679303922574</v>
+        <v>0.0009078863997834343</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.208108647789261</v>
+        <v>0.156823</v>
       </c>
       <c r="H16">
-        <v>0.208108647789261</v>
+        <v>0.470469</v>
       </c>
       <c r="I16">
-        <v>0.003016289352322932</v>
+        <v>0.002128688778858415</v>
       </c>
       <c r="J16">
-        <v>0.003016289352322932</v>
+        <v>0.002128688778858415</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>126.78319617521</v>
+        <v>132.7388736666666</v>
       </c>
       <c r="N16">
-        <v>126.78319617521</v>
+        <v>398.216621</v>
       </c>
       <c r="O16">
-        <v>0.1453316501746329</v>
+        <v>0.1454600287453036</v>
       </c>
       <c r="P16">
-        <v>0.1453316501746329</v>
+        <v>0.1454600287453036</v>
       </c>
       <c r="Q16">
-        <v>26.38467951842356</v>
+        <v>20.81650838502767</v>
       </c>
       <c r="R16">
-        <v>26.38467951842356</v>
+        <v>187.348575465249</v>
       </c>
       <c r="S16">
-        <v>0.0004383623089772663</v>
+        <v>0.0003096391309625503</v>
       </c>
       <c r="T16">
-        <v>0.0004383623089772663</v>
+        <v>0.0003096391309625504</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.208108647789261</v>
+        <v>0.156823</v>
       </c>
       <c r="H17">
-        <v>0.208108647789261</v>
+        <v>0.470469</v>
       </c>
       <c r="I17">
-        <v>0.003016289352322932</v>
+        <v>0.002128688778858415</v>
       </c>
       <c r="J17">
-        <v>0.003016289352322932</v>
+        <v>0.002128688778858415</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>130.898915652117</v>
+        <v>132.282102</v>
       </c>
       <c r="N17">
-        <v>130.898915652117</v>
+        <v>396.846306</v>
       </c>
       <c r="O17">
-        <v>0.150049501761275</v>
+        <v>0.1449594819354051</v>
       </c>
       <c r="P17">
-        <v>0.150049501761275</v>
+        <v>0.1449594819354051</v>
       </c>
       <c r="Q17">
-        <v>27.2411963334426</v>
+        <v>20.744876081946</v>
       </c>
       <c r="R17">
-        <v>27.2411963334426</v>
+        <v>186.703884737514</v>
       </c>
       <c r="S17">
-        <v>0.0004525927144838948</v>
+        <v>0.000308573622585026</v>
       </c>
       <c r="T17">
-        <v>0.0004525927144838948</v>
+        <v>0.000308573622585026</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.208108647789261</v>
+        <v>0.156823</v>
       </c>
       <c r="H18">
-        <v>0.208108647789261</v>
+        <v>0.470469</v>
       </c>
       <c r="I18">
-        <v>0.003016289352322932</v>
+        <v>0.002128688778858415</v>
       </c>
       <c r="J18">
-        <v>0.003016289352322932</v>
+        <v>0.002128688778858415</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.2797555117349</v>
+        <v>58.687468</v>
       </c>
       <c r="N18">
-        <v>58.2797555117349</v>
+        <v>176.062404</v>
       </c>
       <c r="O18">
-        <v>0.06680611702350119</v>
+        <v>0.06431183681508679</v>
       </c>
       <c r="P18">
-        <v>0.06680611702350119</v>
+        <v>0.06431183681508679</v>
       </c>
       <c r="Q18">
-        <v>12.12852111303588</v>
+        <v>9.203544794164001</v>
       </c>
       <c r="R18">
-        <v>12.12852111303588</v>
+        <v>82.831903147476</v>
       </c>
       <c r="S18">
-        <v>0.0002015065794480264</v>
+        <v>0.0001368998853760488</v>
       </c>
       <c r="T18">
-        <v>0.0002015065794480264</v>
+        <v>0.0001368998853760488</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.208108647789261</v>
+        <v>0.156823</v>
       </c>
       <c r="H19">
-        <v>0.208108647789261</v>
+        <v>0.470469</v>
       </c>
       <c r="I19">
-        <v>0.003016289352322932</v>
+        <v>0.002128688778858415</v>
       </c>
       <c r="J19">
-        <v>0.003016289352322932</v>
+        <v>0.002128688778858415</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>140.786527142657</v>
+        <v>145.898463</v>
       </c>
       <c r="N19">
-        <v>140.786527142657</v>
+        <v>437.695389</v>
       </c>
       <c r="O19">
-        <v>0.1613836764591583</v>
+        <v>0.1598807797267379</v>
       </c>
       <c r="P19">
-        <v>0.1613836764591583</v>
+        <v>0.1598807797267379</v>
       </c>
       <c r="Q19">
-        <v>29.29889379060444</v>
+        <v>22.880234663049</v>
       </c>
       <c r="R19">
-        <v>29.29889379060444</v>
+        <v>205.922111967441</v>
       </c>
       <c r="S19">
-        <v>0.0004867798649424881</v>
+        <v>0.0003403364217594409</v>
       </c>
       <c r="T19">
-        <v>0.0004867798649424881</v>
+        <v>0.0003403364217594409</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.297036399076067</v>
+        <v>0.2120506666666666</v>
       </c>
       <c r="H20">
-        <v>0.297036399076067</v>
+        <v>0.6361519999999999</v>
       </c>
       <c r="I20">
-        <v>0.004305192202741896</v>
+        <v>0.002878339750436986</v>
       </c>
       <c r="J20">
-        <v>0.004305192202741896</v>
+        <v>0.002878339750436986</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.7148512276327</v>
+        <v>53.73758233333334</v>
       </c>
       <c r="N20">
-        <v>26.7148512276327</v>
+        <v>161.212747</v>
       </c>
       <c r="O20">
-        <v>0.03062324921763431</v>
+        <v>0.05888757418975077</v>
       </c>
       <c r="P20">
-        <v>0.03062324921763431</v>
+        <v>0.05888757418975077</v>
       </c>
       <c r="Q20">
-        <v>7.935283210508865</v>
+        <v>11.39509015883822</v>
       </c>
       <c r="R20">
-        <v>7.935283210508865</v>
+        <v>102.555811429544</v>
       </c>
       <c r="S20">
-        <v>0.0001318389737543811</v>
+        <v>0.0001694984455971667</v>
       </c>
       <c r="T20">
-        <v>0.0001318389737543811</v>
+        <v>0.0001694984455971667</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.297036399076067</v>
+        <v>0.2120506666666666</v>
       </c>
       <c r="H21">
-        <v>0.297036399076067</v>
+        <v>0.6361519999999999</v>
       </c>
       <c r="I21">
-        <v>0.004305192202741896</v>
+        <v>0.002878339750436986</v>
       </c>
       <c r="J21">
-        <v>0.004305192202741896</v>
+        <v>0.002878339750436986</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>388.908299118394</v>
+        <v>389.2008666666666</v>
       </c>
       <c r="N21">
-        <v>388.908299118394</v>
+        <v>1167.6026</v>
       </c>
       <c r="O21">
-        <v>0.4458058053637982</v>
+        <v>0.4265002985877158</v>
       </c>
       <c r="P21">
-        <v>0.4458058053637982</v>
+        <v>0.4265002985877158</v>
       </c>
       <c r="Q21">
-        <v>115.5199207409257</v>
+        <v>82.53030324391109</v>
       </c>
       <c r="R21">
-        <v>115.5199207409257</v>
+        <v>742.7727291951999</v>
       </c>
       <c r="S21">
-        <v>0.001919279677189296</v>
+        <v>0.001227612762998266</v>
       </c>
       <c r="T21">
-        <v>0.001919279677189296</v>
+        <v>0.001227612762998266</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.297036399076067</v>
+        <v>0.2120506666666666</v>
       </c>
       <c r="H22">
-        <v>0.297036399076067</v>
+        <v>0.6361519999999999</v>
       </c>
       <c r="I22">
-        <v>0.004305192202741896</v>
+        <v>0.002878339750436986</v>
       </c>
       <c r="J22">
-        <v>0.004305192202741896</v>
+        <v>0.002878339750436986</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>126.78319617521</v>
+        <v>132.7388736666666</v>
       </c>
       <c r="N22">
-        <v>126.78319617521</v>
+        <v>398.216621</v>
       </c>
       <c r="O22">
-        <v>0.1453316501746329</v>
+        <v>0.1454600287453036</v>
       </c>
       <c r="P22">
-        <v>0.1453316501746329</v>
+        <v>0.1454600287453036</v>
       </c>
       <c r="Q22">
-        <v>37.65922405523897</v>
+        <v>28.1473666535991</v>
       </c>
       <c r="R22">
-        <v>37.65922405523897</v>
+        <v>253.326299882392</v>
       </c>
       <c r="S22">
-        <v>0.0006256806871434424</v>
+        <v>0.000418683382837314</v>
       </c>
       <c r="T22">
-        <v>0.0006256806871434424</v>
+        <v>0.0004186833828373141</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.297036399076067</v>
+        <v>0.2120506666666666</v>
       </c>
       <c r="H23">
-        <v>0.297036399076067</v>
+        <v>0.6361519999999999</v>
       </c>
       <c r="I23">
-        <v>0.004305192202741896</v>
+        <v>0.002878339750436986</v>
       </c>
       <c r="J23">
-        <v>0.004305192202741896</v>
+        <v>0.002878339750436986</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>130.898915652117</v>
+        <v>132.282102</v>
       </c>
       <c r="N23">
-        <v>130.898915652117</v>
+        <v>396.846306</v>
       </c>
       <c r="O23">
-        <v>0.150049501761275</v>
+        <v>0.1449594819354051</v>
       </c>
       <c r="P23">
-        <v>0.150049501761275</v>
+        <v>0.1449594819354051</v>
       </c>
       <c r="Q23">
-        <v>38.88174254826666</v>
+        <v>28.050507917168</v>
       </c>
       <c r="R23">
-        <v>38.88174254826666</v>
+        <v>252.454571254512</v>
       </c>
       <c r="S23">
-        <v>0.0006459919450079475</v>
+        <v>0.0004172426390574288</v>
       </c>
       <c r="T23">
-        <v>0.0006459919450079475</v>
+        <v>0.0004172426390574288</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.297036399076067</v>
+        <v>0.2120506666666666</v>
       </c>
       <c r="H24">
-        <v>0.297036399076067</v>
+        <v>0.6361519999999999</v>
       </c>
       <c r="I24">
-        <v>0.004305192202741896</v>
+        <v>0.002878339750436986</v>
       </c>
       <c r="J24">
-        <v>0.004305192202741896</v>
+        <v>0.002878339750436986</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.2797555117349</v>
+        <v>58.687468</v>
       </c>
       <c r="N24">
-        <v>58.2797555117349</v>
+        <v>176.062404</v>
       </c>
       <c r="O24">
-        <v>0.06680611702350119</v>
+        <v>0.06431183681508679</v>
       </c>
       <c r="P24">
-        <v>0.06680611702350119</v>
+        <v>0.06431183681508679</v>
       </c>
       <c r="Q24">
-        <v>17.3112087162393</v>
+        <v>12.44471671437866</v>
       </c>
       <c r="R24">
-        <v>17.3112087162393</v>
+        <v>112.002450429408</v>
       </c>
       <c r="S24">
-        <v>0.00028761317410504</v>
+        <v>0.0001851113163284811</v>
       </c>
       <c r="T24">
-        <v>0.00028761317410504</v>
+        <v>0.0001851113163284811</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.297036399076067</v>
+        <v>0.2120506666666666</v>
       </c>
       <c r="H25">
-        <v>0.297036399076067</v>
+        <v>0.6361519999999999</v>
       </c>
       <c r="I25">
-        <v>0.004305192202741896</v>
+        <v>0.002878339750436986</v>
       </c>
       <c r="J25">
-        <v>0.004305192202741896</v>
+        <v>0.002878339750436986</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>140.786527142657</v>
+        <v>145.898463</v>
       </c>
       <c r="N25">
-        <v>140.786527142657</v>
+        <v>437.695389</v>
       </c>
       <c r="O25">
-        <v>0.1613836764591583</v>
+        <v>0.1598807797267379</v>
       </c>
       <c r="P25">
-        <v>0.1613836764591583</v>
+        <v>0.1598807797267379</v>
       </c>
       <c r="Q25">
-        <v>41.8187230608798</v>
+        <v>30.937866344792</v>
       </c>
       <c r="R25">
-        <v>41.8187230608798</v>
+        <v>278.440797103128</v>
       </c>
       <c r="S25">
-        <v>0.0006947877455417891</v>
+        <v>0.0004601912036183294</v>
       </c>
       <c r="T25">
-        <v>0.0006947877455417891</v>
+        <v>0.0004601912036183294</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>16.7144325377714</v>
+        <v>0.3266946666666667</v>
       </c>
       <c r="H26">
-        <v>16.7144325377714</v>
+        <v>0.9800840000000001</v>
       </c>
       <c r="I26">
-        <v>0.2422559822927331</v>
+        <v>0.004434497943836196</v>
       </c>
       <c r="J26">
-        <v>0.2422559822927331</v>
+        <v>0.004434497943836196</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>26.7148512276327</v>
+        <v>53.73758233333334</v>
       </c>
       <c r="N26">
-        <v>26.7148512276327</v>
+        <v>161.212747</v>
       </c>
       <c r="O26">
-        <v>0.03062324921763431</v>
+        <v>0.05888757418975077</v>
       </c>
       <c r="P26">
-        <v>0.03062324921763431</v>
+        <v>0.05888757418975077</v>
       </c>
       <c r="Q26">
-        <v>446.5235786008662</v>
+        <v>17.55578154786089</v>
       </c>
       <c r="R26">
-        <v>446.5235786008662</v>
+        <v>158.002033930748</v>
       </c>
       <c r="S26">
-        <v>0.00741866532021317</v>
+        <v>0.0002611368266619512</v>
       </c>
       <c r="T26">
-        <v>0.00741866532021317</v>
+        <v>0.0002611368266619512</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>16.7144325377714</v>
+        <v>0.3266946666666667</v>
       </c>
       <c r="H27">
-        <v>16.7144325377714</v>
+        <v>0.9800840000000001</v>
       </c>
       <c r="I27">
-        <v>0.2422559822927331</v>
+        <v>0.004434497943836196</v>
       </c>
       <c r="J27">
-        <v>0.2422559822927331</v>
+        <v>0.004434497943836196</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>388.908299118394</v>
+        <v>389.2008666666666</v>
       </c>
       <c r="N27">
-        <v>388.908299118394</v>
+        <v>1167.6026</v>
       </c>
       <c r="O27">
-        <v>0.4458058053637982</v>
+        <v>0.4265002985877158</v>
       </c>
       <c r="P27">
-        <v>0.4458058053637982</v>
+        <v>0.4265002985877158</v>
       </c>
       <c r="Q27">
-        <v>6500.381528993817</v>
+        <v>127.1498474020444</v>
       </c>
       <c r="R27">
-        <v>6500.381528993817</v>
+        <v>1144.3486266184</v>
       </c>
       <c r="S27">
-        <v>0.1079991232902099</v>
+        <v>0.001891314697132749</v>
       </c>
       <c r="T27">
-        <v>0.1079991232902099</v>
+        <v>0.001891314697132749</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>16.7144325377714</v>
+        <v>0.3266946666666667</v>
       </c>
       <c r="H28">
-        <v>16.7144325377714</v>
+        <v>0.9800840000000001</v>
       </c>
       <c r="I28">
-        <v>0.2422559822927331</v>
+        <v>0.004434497943836196</v>
       </c>
       <c r="J28">
-        <v>0.2422559822927331</v>
+        <v>0.004434497943836196</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>126.78319617521</v>
+        <v>132.7388736666666</v>
       </c>
       <c r="N28">
-        <v>126.78319617521</v>
+        <v>398.216621</v>
       </c>
       <c r="O28">
-        <v>0.1453316501746329</v>
+        <v>0.1454600287453036</v>
       </c>
       <c r="P28">
-        <v>0.1453316501746329</v>
+        <v>0.1454600287453036</v>
       </c>
       <c r="Q28">
-        <v>2119.109179393585</v>
+        <v>43.36508208624044</v>
       </c>
       <c r="R28">
-        <v>2119.109179393585</v>
+        <v>390.285738776164</v>
       </c>
       <c r="S28">
-        <v>0.03520746167127954</v>
+        <v>0.0006450421983814029</v>
       </c>
       <c r="T28">
-        <v>0.03520746167127954</v>
+        <v>0.000645042198381403</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>16.7144325377714</v>
+        <v>0.3266946666666667</v>
       </c>
       <c r="H29">
-        <v>16.7144325377714</v>
+        <v>0.9800840000000001</v>
       </c>
       <c r="I29">
-        <v>0.2422559822927331</v>
+        <v>0.004434497943836196</v>
       </c>
       <c r="J29">
-        <v>0.2422559822927331</v>
+        <v>0.004434497943836196</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>130.898915652117</v>
+        <v>132.282102</v>
       </c>
       <c r="N29">
-        <v>130.898915652117</v>
+        <v>396.846306</v>
       </c>
       <c r="O29">
-        <v>0.150049501761275</v>
+        <v>0.1449594819354051</v>
       </c>
       <c r="P29">
-        <v>0.150049501761275</v>
+        <v>0.1449594819354051</v>
       </c>
       <c r="Q29">
-        <v>2187.901094934739</v>
+        <v>43.21585721885601</v>
       </c>
       <c r="R29">
-        <v>2187.901094934739</v>
+        <v>388.9427149697041</v>
       </c>
       <c r="S29">
-        <v>0.03635038944171286</v>
+        <v>0.0006428225245821141</v>
       </c>
       <c r="T29">
-        <v>0.03635038944171286</v>
+        <v>0.0006428225245821141</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>16.7144325377714</v>
+        <v>0.3266946666666667</v>
       </c>
       <c r="H30">
-        <v>16.7144325377714</v>
+        <v>0.9800840000000001</v>
       </c>
       <c r="I30">
-        <v>0.2422559822927331</v>
+        <v>0.004434497943836196</v>
       </c>
       <c r="J30">
-        <v>0.2422559822927331</v>
+        <v>0.004434497943836196</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.2797555117349</v>
+        <v>58.687468</v>
       </c>
       <c r="N30">
-        <v>58.2797555117349</v>
+        <v>176.062404</v>
       </c>
       <c r="O30">
-        <v>0.06680611702350119</v>
+        <v>0.06431183681508679</v>
       </c>
       <c r="P30">
-        <v>0.06680611702350119</v>
+        <v>0.06431183681508679</v>
       </c>
       <c r="Q30">
-        <v>974.1130418187039</v>
+        <v>19.17288279577066</v>
       </c>
       <c r="R30">
-        <v>974.1130418187039</v>
+        <v>172.555945161936</v>
       </c>
       <c r="S30">
-        <v>0.01618418150269156</v>
+        <v>0.0002851907081208313</v>
       </c>
       <c r="T30">
-        <v>0.01618418150269156</v>
+        <v>0.0002851907081208313</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.3266946666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.9800840000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.004434497943836196</v>
+      </c>
+      <c r="J31">
+        <v>0.004434497943836196</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>145.898463</v>
+      </c>
+      <c r="N31">
+        <v>437.695389</v>
+      </c>
+      <c r="O31">
+        <v>0.1598807797267379</v>
+      </c>
+      <c r="P31">
+        <v>0.1598807797267379</v>
+      </c>
+      <c r="Q31">
+        <v>47.664249736964</v>
+      </c>
+      <c r="R31">
+        <v>428.978247632676</v>
+      </c>
+      <c r="S31">
+        <v>0.0007089909889571468</v>
+      </c>
+      <c r="T31">
+        <v>0.0007089909889571468</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>18.46832433333333</v>
+      </c>
+      <c r="H32">
+        <v>55.404973</v>
+      </c>
+      <c r="I32">
+        <v>0.2506858992155773</v>
+      </c>
+      <c r="J32">
+        <v>0.2506858992155774</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>53.73758233333334</v>
+      </c>
+      <c r="N32">
+        <v>161.212747</v>
+      </c>
+      <c r="O32">
+        <v>0.05888757418975077</v>
+      </c>
+      <c r="P32">
+        <v>0.05888757418975077</v>
+      </c>
+      <c r="Q32">
+        <v>992.4430994212034</v>
+      </c>
+      <c r="R32">
+        <v>8931.987894790831</v>
+      </c>
+      <c r="S32">
+        <v>0.01476228448838169</v>
+      </c>
+      <c r="T32">
+        <v>0.0147622844883817</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>18.46832433333333</v>
+      </c>
+      <c r="H33">
+        <v>55.404973</v>
+      </c>
+      <c r="I33">
+        <v>0.2506858992155773</v>
+      </c>
+      <c r="J33">
+        <v>0.2506858992155774</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>389.2008666666666</v>
+      </c>
+      <c r="N33">
+        <v>1167.6026</v>
+      </c>
+      <c r="O33">
+        <v>0.4265002985877158</v>
+      </c>
+      <c r="P33">
+        <v>0.4265002985877158</v>
+      </c>
+      <c r="Q33">
+        <v>7187.887836414421</v>
+      </c>
+      <c r="R33">
+        <v>64690.99052772979</v>
+      </c>
+      <c r="S33">
+        <v>0.1069176108671738</v>
+      </c>
+      <c r="T33">
+        <v>0.1069176108671738</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>18.46832433333333</v>
+      </c>
+      <c r="H34">
+        <v>55.404973</v>
+      </c>
+      <c r="I34">
+        <v>0.2506858992155773</v>
+      </c>
+      <c r="J34">
+        <v>0.2506858992155774</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>132.7388736666666</v>
+      </c>
+      <c r="N34">
+        <v>398.216621</v>
+      </c>
+      <c r="O34">
+        <v>0.1454600287453036</v>
+      </c>
+      <c r="P34">
+        <v>0.1454600287453036</v>
+      </c>
+      <c r="Q34">
+        <v>2451.464570517359</v>
+      </c>
+      <c r="R34">
+        <v>22063.18113465623</v>
+      </c>
+      <c r="S34">
+        <v>0.03646477810594016</v>
+      </c>
+      <c r="T34">
+        <v>0.03646477810594018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>18.46832433333333</v>
+      </c>
+      <c r="H35">
+        <v>55.404973</v>
+      </c>
+      <c r="I35">
+        <v>0.2506858992155773</v>
+      </c>
+      <c r="J35">
+        <v>0.2506858992155774</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>132.282102</v>
+      </c>
+      <c r="N35">
+        <v>396.846306</v>
+      </c>
+      <c r="O35">
+        <v>0.1449594819354051</v>
+      </c>
+      <c r="P35">
+        <v>0.1449594819354051</v>
+      </c>
+      <c r="Q35">
+        <v>2443.028763231082</v>
+      </c>
+      <c r="R35">
+        <v>21987.25886907974</v>
+      </c>
+      <c r="S35">
+        <v>0.03633929807880127</v>
+      </c>
+      <c r="T35">
+        <v>0.03633929807880128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>16.7144325377714</v>
-      </c>
-      <c r="H31">
-        <v>16.7144325377714</v>
-      </c>
-      <c r="I31">
-        <v>0.2422559822927331</v>
-      </c>
-      <c r="J31">
-        <v>0.2422559822927331</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>140.786527142657</v>
-      </c>
-      <c r="N31">
-        <v>140.786527142657</v>
-      </c>
-      <c r="O31">
-        <v>0.1613836764591583</v>
-      </c>
-      <c r="P31">
-        <v>0.1613836764591583</v>
-      </c>
-      <c r="Q31">
-        <v>2353.166910153063</v>
-      </c>
-      <c r="R31">
-        <v>2353.166910153063</v>
-      </c>
-      <c r="S31">
-        <v>0.03909616106662601</v>
-      </c>
-      <c r="T31">
-        <v>0.03909616106662601</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>18.46832433333333</v>
+      </c>
+      <c r="H36">
+        <v>55.404973</v>
+      </c>
+      <c r="I36">
+        <v>0.2506858992155773</v>
+      </c>
+      <c r="J36">
+        <v>0.2506858992155774</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>58.687468</v>
+      </c>
+      <c r="N36">
+        <v>176.062404</v>
+      </c>
+      <c r="O36">
+        <v>0.06431183681508679</v>
+      </c>
+      <c r="P36">
+        <v>0.06431183681508679</v>
+      </c>
+      <c r="Q36">
+        <v>1083.859193326121</v>
+      </c>
+      <c r="R36">
+        <v>9754.732739935091</v>
+      </c>
+      <c r="S36">
+        <v>0.0161220706421955</v>
+      </c>
+      <c r="T36">
+        <v>0.0161220706421955</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>18.46832433333333</v>
+      </c>
+      <c r="H37">
+        <v>55.404973</v>
+      </c>
+      <c r="I37">
+        <v>0.2506858992155773</v>
+      </c>
+      <c r="J37">
+        <v>0.2506858992155774</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>145.898463</v>
+      </c>
+      <c r="N37">
+        <v>437.695389</v>
+      </c>
+      <c r="O37">
+        <v>0.1598807797267379</v>
+      </c>
+      <c r="P37">
+        <v>0.1598807797267379</v>
+      </c>
+      <c r="Q37">
+        <v>2694.500134418833</v>
+      </c>
+      <c r="R37">
+        <v>24250.5012097695</v>
+      </c>
+      <c r="S37">
+        <v>0.04007985703308493</v>
+      </c>
+      <c r="T37">
+        <v>0.04007985703308493</v>
       </c>
     </row>
   </sheetData>
